--- a/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,289 +452,417 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>720</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>360</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1010</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>880</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>600</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>800</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4760</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45467</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45474</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45481</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>800</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45537</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45544</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>300</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45551</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45558</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45565</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45586</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45600</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>2040</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45607</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1580</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45621</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B37" t="n">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
         <v>2860</v>
       </c>
     </row>
@@ -749,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,89 +899,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2010</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2010</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2170</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>5840</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1620</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1520</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>400</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>6480</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
@@ -647,7 +647,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1010</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +655,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -974,7 +974,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2170</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="12">

--- a/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1039,6 +1040,887 @@
       </c>
       <c r="B19" t="n">
         <v>6480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-835.6488785859967</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1108.635429218274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>146</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-775.8332883999547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1126.534149979286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>158</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-807.0533412821774</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1128.336652886524</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>170</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-766.9727124938161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1237.583644660089</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>182</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-851.3232678472796</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1223.868109089246</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>194</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-714.526498595209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1157.568101829287</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-773.6367651560749</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1220.06883812287</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>218</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-658.219910387439</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1250.701906606763</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>242</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-751.9393776315899</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1249.868147522119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>290</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-734.833933539636</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1355.762912557114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>302</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-665.376520828181</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1301.686758800375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>313</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-781.7987796075039</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1207.365516141021</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>325</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-637.2793939417709</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1390.479132855456</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>361</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-642.0299437643873</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1405.523230476082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>397</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-583.108654658096</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1383.311589361685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>409</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-551.4754735673458</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1316.297229367803</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>445</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-616.9110018414179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1412.201959894841</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>469</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-515.6618600909683</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1503.821000276349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>481</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-563.9973341163721</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1441.680880064337</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>493</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-551.2432341865439</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1450.005290694486</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>505</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-439.1341906831012</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1488.758360544375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>517</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-507.7120782371933</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1503.982739685488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-456.8184637166165</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1567.414708711937</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>541</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-461.554446824467</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1567.856986887738</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>553</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-537.3575275739037</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1555.852130177519</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>565</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-366.6105631300451</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1500.515127638059</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>577</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-472.4592378694835</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1591.573082093481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>589</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-324.7824249712058</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1567.445134144729</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>600</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-347.3442505267897</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1603.488369598753</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>612</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-343.4192898161252</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1678.69962025682</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>636</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-355.7514339507796</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1571.535792387506</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>648</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-291.4279303591582</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1627.493464240261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>660</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-335.2011969468355</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1657.882338788664</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>672</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-277.7044518082385</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1689.058487734388</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>684</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-309.1335630895834</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1646.193262876515</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>696</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-313.5480901082159</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1685.470336564062</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>720</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-311.9054931381003</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1747.910078258309</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>732</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-237.3658952688732</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1719.249941882912</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>744</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-305.2526771235004</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1671.15582977682</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>756</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-270.1574696990393</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1713.127012938206</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>768</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-267.5646693625378</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1734.957999439636</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>840</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-87.135755479343</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1820.451143798118</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>852</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-123.7996049787787</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1861.673564260666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>864</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-50.49763766521973</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1882.277799950448</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>876</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-81.41000890748454</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1910.218518262751</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>887</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-63.30010318795716</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1842.390408637348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>899</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-70.93364991235931</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1917.985440446598</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>911</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-31.35824692306864</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1932.104410621156</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>947</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-61.8802172323444</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1896.308982921634</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-56.43208876090809</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1943.667231789565</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>983</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-75.96522114730642</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1921.932301637178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C53" t="n">
+        <v>107.7730327275476</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2047.107929252176</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-11.65300201435021</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2000.963471104664</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19.46228475037651</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2086.701711839247</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C56" t="n">
+        <v>114.0327951148185</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2008.496174132569</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C57" t="n">
+        <v>112.6974689427577</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2133.60344434086</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.06677369992552</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2072.228942539828</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1079</v>
+      </c>
+      <c r="C59" t="n">
+        <v>72.29990649589411</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2089.928648386386</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C60" t="n">
+        <v>81.04832189973969</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2076.255375539514</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C61" t="n">
+        <v>103.0072665117113</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2072.705322274054</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8KQRH32_po_data.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1090,12 +1080,6 @@
       <c r="B2" t="n">
         <v>122</v>
       </c>
-      <c r="C2" t="n">
-        <v>-835.6488785859967</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1108.635429218274</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1104,12 +1088,6 @@
       <c r="B3" t="n">
         <v>146</v>
       </c>
-      <c r="C3" t="n">
-        <v>-775.8332883999547</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1126.534149979286</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1118,12 +1096,6 @@
       <c r="B4" t="n">
         <v>158</v>
       </c>
-      <c r="C4" t="n">
-        <v>-807.0533412821774</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1128.336652886524</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1132,12 +1104,6 @@
       <c r="B5" t="n">
         <v>170</v>
       </c>
-      <c r="C5" t="n">
-        <v>-766.9727124938161</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1237.583644660089</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1146,12 +1112,6 @@
       <c r="B6" t="n">
         <v>182</v>
       </c>
-      <c r="C6" t="n">
-        <v>-851.3232678472796</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1223.868109089246</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1160,12 +1120,6 @@
       <c r="B7" t="n">
         <v>194</v>
       </c>
-      <c r="C7" t="n">
-        <v>-714.526498595209</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1157.568101829287</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1174,12 +1128,6 @@
       <c r="B8" t="n">
         <v>206</v>
       </c>
-      <c r="C8" t="n">
-        <v>-773.6367651560749</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1220.06883812287</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1188,12 +1136,6 @@
       <c r="B9" t="n">
         <v>218</v>
       </c>
-      <c r="C9" t="n">
-        <v>-658.219910387439</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1250.701906606763</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1202,12 +1144,6 @@
       <c r="B10" t="n">
         <v>242</v>
       </c>
-      <c r="C10" t="n">
-        <v>-751.9393776315899</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1249.868147522119</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1216,12 +1152,6 @@
       <c r="B11" t="n">
         <v>290</v>
       </c>
-      <c r="C11" t="n">
-        <v>-734.833933539636</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1355.762912557114</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1230,12 +1160,6 @@
       <c r="B12" t="n">
         <v>302</v>
       </c>
-      <c r="C12" t="n">
-        <v>-665.376520828181</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1301.686758800375</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1244,12 +1168,6 @@
       <c r="B13" t="n">
         <v>313</v>
       </c>
-      <c r="C13" t="n">
-        <v>-781.7987796075039</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1207.365516141021</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1258,12 +1176,6 @@
       <c r="B14" t="n">
         <v>325</v>
       </c>
-      <c r="C14" t="n">
-        <v>-637.2793939417709</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1390.479132855456</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1272,12 +1184,6 @@
       <c r="B15" t="n">
         <v>361</v>
       </c>
-      <c r="C15" t="n">
-        <v>-642.0299437643873</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1405.523230476082</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1286,12 +1192,6 @@
       <c r="B16" t="n">
         <v>397</v>
       </c>
-      <c r="C16" t="n">
-        <v>-583.108654658096</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1383.311589361685</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1300,12 +1200,6 @@
       <c r="B17" t="n">
         <v>409</v>
       </c>
-      <c r="C17" t="n">
-        <v>-551.4754735673458</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1316.297229367803</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1314,12 +1208,6 @@
       <c r="B18" t="n">
         <v>445</v>
       </c>
-      <c r="C18" t="n">
-        <v>-616.9110018414179</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1412.201959894841</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1328,12 +1216,6 @@
       <c r="B19" t="n">
         <v>469</v>
       </c>
-      <c r="C19" t="n">
-        <v>-515.6618600909683</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1503.821000276349</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1342,12 +1224,6 @@
       <c r="B20" t="n">
         <v>481</v>
       </c>
-      <c r="C20" t="n">
-        <v>-563.9973341163721</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1441.680880064337</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1356,12 +1232,6 @@
       <c r="B21" t="n">
         <v>493</v>
       </c>
-      <c r="C21" t="n">
-        <v>-551.2432341865439</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1450.005290694486</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1370,12 +1240,6 @@
       <c r="B22" t="n">
         <v>505</v>
       </c>
-      <c r="C22" t="n">
-        <v>-439.1341906831012</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1488.758360544375</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1384,12 +1248,6 @@
       <c r="B23" t="n">
         <v>517</v>
       </c>
-      <c r="C23" t="n">
-        <v>-507.7120782371933</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1503.982739685488</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1398,12 +1256,6 @@
       <c r="B24" t="n">
         <v>529</v>
       </c>
-      <c r="C24" t="n">
-        <v>-456.8184637166165</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1567.414708711937</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1412,12 +1264,6 @@
       <c r="B25" t="n">
         <v>541</v>
       </c>
-      <c r="C25" t="n">
-        <v>-461.554446824467</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1567.856986887738</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1426,12 +1272,6 @@
       <c r="B26" t="n">
         <v>553</v>
       </c>
-      <c r="C26" t="n">
-        <v>-537.3575275739037</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1555.852130177519</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1440,12 +1280,6 @@
       <c r="B27" t="n">
         <v>565</v>
       </c>
-      <c r="C27" t="n">
-        <v>-366.6105631300451</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1500.515127638059</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1454,12 +1288,6 @@
       <c r="B28" t="n">
         <v>577</v>
       </c>
-      <c r="C28" t="n">
-        <v>-472.4592378694835</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1591.573082093481</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1468,12 +1296,6 @@
       <c r="B29" t="n">
         <v>589</v>
       </c>
-      <c r="C29" t="n">
-        <v>-324.7824249712058</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1567.445134144729</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1482,12 +1304,6 @@
       <c r="B30" t="n">
         <v>600</v>
       </c>
-      <c r="C30" t="n">
-        <v>-347.3442505267897</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1603.488369598753</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1496,12 +1312,6 @@
       <c r="B31" t="n">
         <v>612</v>
       </c>
-      <c r="C31" t="n">
-        <v>-343.4192898161252</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1678.69962025682</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1510,12 +1320,6 @@
       <c r="B32" t="n">
         <v>636</v>
       </c>
-      <c r="C32" t="n">
-        <v>-355.7514339507796</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1571.535792387506</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1524,12 +1328,6 @@
       <c r="B33" t="n">
         <v>648</v>
       </c>
-      <c r="C33" t="n">
-        <v>-291.4279303591582</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1627.493464240261</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1538,12 +1336,6 @@
       <c r="B34" t="n">
         <v>660</v>
       </c>
-      <c r="C34" t="n">
-        <v>-335.2011969468355</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1657.882338788664</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1552,12 +1344,6 @@
       <c r="B35" t="n">
         <v>672</v>
       </c>
-      <c r="C35" t="n">
-        <v>-277.7044518082385</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1689.058487734388</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1566,12 +1352,6 @@
       <c r="B36" t="n">
         <v>684</v>
       </c>
-      <c r="C36" t="n">
-        <v>-309.1335630895834</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1646.193262876515</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,12 +1360,6 @@
       <c r="B37" t="n">
         <v>696</v>
       </c>
-      <c r="C37" t="n">
-        <v>-313.5480901082159</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1685.470336564062</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1594,12 +1368,6 @@
       <c r="B38" t="n">
         <v>720</v>
       </c>
-      <c r="C38" t="n">
-        <v>-311.9054931381003</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1747.910078258309</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1608,12 +1376,6 @@
       <c r="B39" t="n">
         <v>732</v>
       </c>
-      <c r="C39" t="n">
-        <v>-237.3658952688732</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1719.249941882912</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1622,12 +1384,6 @@
       <c r="B40" t="n">
         <v>744</v>
       </c>
-      <c r="C40" t="n">
-        <v>-305.2526771235004</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1671.15582977682</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1636,12 +1392,6 @@
       <c r="B41" t="n">
         <v>756</v>
       </c>
-      <c r="C41" t="n">
-        <v>-270.1574696990393</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1713.127012938206</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1650,12 +1400,6 @@
       <c r="B42" t="n">
         <v>768</v>
       </c>
-      <c r="C42" t="n">
-        <v>-267.5646693625378</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1734.957999439636</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1664,12 +1408,6 @@
       <c r="B43" t="n">
         <v>840</v>
       </c>
-      <c r="C43" t="n">
-        <v>-87.135755479343</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1820.451143798118</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1678,12 +1416,6 @@
       <c r="B44" t="n">
         <v>852</v>
       </c>
-      <c r="C44" t="n">
-        <v>-123.7996049787787</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1861.673564260666</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1692,12 +1424,6 @@
       <c r="B45" t="n">
         <v>864</v>
       </c>
-      <c r="C45" t="n">
-        <v>-50.49763766521973</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1882.277799950448</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1706,12 +1432,6 @@
       <c r="B46" t="n">
         <v>876</v>
       </c>
-      <c r="C46" t="n">
-        <v>-81.41000890748454</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1910.218518262751</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1720,12 +1440,6 @@
       <c r="B47" t="n">
         <v>887</v>
       </c>
-      <c r="C47" t="n">
-        <v>-63.30010318795716</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1842.390408637348</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1734,12 +1448,6 @@
       <c r="B48" t="n">
         <v>899</v>
       </c>
-      <c r="C48" t="n">
-        <v>-70.93364991235931</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1917.985440446598</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1748,12 +1456,6 @@
       <c r="B49" t="n">
         <v>911</v>
       </c>
-      <c r="C49" t="n">
-        <v>-31.35824692306864</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1932.104410621156</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1762,12 +1464,6 @@
       <c r="B50" t="n">
         <v>947</v>
       </c>
-      <c r="C50" t="n">
-        <v>-61.8802172323444</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1896.308982921634</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1776,12 +1472,6 @@
       <c r="B51" t="n">
         <v>971</v>
       </c>
-      <c r="C51" t="n">
-        <v>-56.43208876090809</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1943.667231789565</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1790,12 +1480,6 @@
       <c r="B52" t="n">
         <v>983</v>
       </c>
-      <c r="C52" t="n">
-        <v>-75.96522114730642</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1921.932301637178</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1804,12 +1488,6 @@
       <c r="B53" t="n">
         <v>1007</v>
       </c>
-      <c r="C53" t="n">
-        <v>107.7730327275476</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2047.107929252176</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1818,12 +1496,6 @@
       <c r="B54" t="n">
         <v>1019</v>
       </c>
-      <c r="C54" t="n">
-        <v>-11.65300201435021</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2000.963471104664</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1832,12 +1504,6 @@
       <c r="B55" t="n">
         <v>1031</v>
       </c>
-      <c r="C55" t="n">
-        <v>19.46228475037651</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2086.701711839247</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1846,12 +1512,6 @@
       <c r="B56" t="n">
         <v>1043</v>
       </c>
-      <c r="C56" t="n">
-        <v>114.0327951148185</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2008.496174132569</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1860,12 +1520,6 @@
       <c r="B57" t="n">
         <v>1055</v>
       </c>
-      <c r="C57" t="n">
-        <v>112.6974689427577</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2133.60344434086</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1874,12 +1528,6 @@
       <c r="B58" t="n">
         <v>1067</v>
       </c>
-      <c r="C58" t="n">
-        <v>29.06677369992552</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2072.228942539828</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1888,12 +1536,6 @@
       <c r="B59" t="n">
         <v>1079</v>
       </c>
-      <c r="C59" t="n">
-        <v>72.29990649589411</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2089.928648386386</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1902,12 +1544,6 @@
       <c r="B60" t="n">
         <v>1091</v>
       </c>
-      <c r="C60" t="n">
-        <v>81.04832189973969</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2076.255375539514</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1915,12 +1551,6 @@
       </c>
       <c r="B61" t="n">
         <v>1103</v>
-      </c>
-      <c r="C61" t="n">
-        <v>103.0072665117113</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2072.705322274054</v>
       </c>
     </row>
   </sheetData>
